--- a/analysis_Campinas/campinas_tabnet/cps2014_c.xlsx
+++ b/analysis_Campinas/campinas_tabnet/cps2014_c.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t xml:space="preserve">cid_grupos</t>
   </si>
@@ -83,6 +83,9 @@
     <t xml:space="preserve">Idade ignorada</t>
   </si>
   <si>
+    <t xml:space="preserve">Total</t>
+  </si>
+  <si>
     <t xml:space="preserve">Doenças do aparelho circulatório</t>
   </si>
   <si>
@@ -96,6 +99,9 @@
   </si>
   <si>
     <t xml:space="preserve">Neoplasmas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outros</t>
   </si>
 </sst>
 </file>
@@ -497,10 +503,13 @@
       <c r="W1" t="s">
         <v>22</v>
       </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="n">
         <v>4</v>
@@ -567,11 +576,14 @@
       </c>
       <c r="W2" t="n">
         <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1996</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -638,11 +650,14 @@
       </c>
       <c r="W3" t="n">
         <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>279</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" t="n">
         <v>9</v>
@@ -709,11 +724,14 @@
       </c>
       <c r="W4" t="n">
         <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1120</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -780,11 +798,14 @@
       </c>
       <c r="W5" t="n">
         <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>281</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" t="n">
         <v>3</v>
@@ -851,6 +872,157 @@
       </c>
       <c r="W6" t="n">
         <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="n">
+        <v>143</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>20</v>
+      </c>
+      <c r="E7" t="n">
+        <v>55</v>
+      </c>
+      <c r="F7" t="n">
+        <v>63</v>
+      </c>
+      <c r="G7" t="n">
+        <v>80</v>
+      </c>
+      <c r="H7" t="n">
+        <v>101</v>
+      </c>
+      <c r="I7" t="n">
+        <v>95</v>
+      </c>
+      <c r="J7" t="n">
+        <v>95</v>
+      </c>
+      <c r="K7" t="n">
+        <v>121</v>
+      </c>
+      <c r="L7" t="n">
+        <v>113</v>
+      </c>
+      <c r="M7" t="n">
+        <v>121</v>
+      </c>
+      <c r="N7" t="n">
+        <v>107</v>
+      </c>
+      <c r="O7" t="n">
+        <v>113</v>
+      </c>
+      <c r="P7" t="n">
+        <v>107</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>137</v>
+      </c>
+      <c r="R7" t="n">
+        <v>156</v>
+      </c>
+      <c r="S7" t="n">
+        <v>164</v>
+      </c>
+      <c r="T7" t="n">
+        <v>114</v>
+      </c>
+      <c r="U7" t="n">
+        <v>36</v>
+      </c>
+      <c r="V7" t="n">
+        <v>13</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="n">
+        <v>159</v>
+      </c>
+      <c r="C8" t="n">
+        <v>11</v>
+      </c>
+      <c r="D8" t="n">
+        <v>26</v>
+      </c>
+      <c r="E8" t="n">
+        <v>65</v>
+      </c>
+      <c r="F8" t="n">
+        <v>72</v>
+      </c>
+      <c r="G8" t="n">
+        <v>94</v>
+      </c>
+      <c r="H8" t="n">
+        <v>136</v>
+      </c>
+      <c r="I8" t="n">
+        <v>157</v>
+      </c>
+      <c r="J8" t="n">
+        <v>193</v>
+      </c>
+      <c r="K8" t="n">
+        <v>278</v>
+      </c>
+      <c r="L8" t="n">
+        <v>358</v>
+      </c>
+      <c r="M8" t="n">
+        <v>456</v>
+      </c>
+      <c r="N8" t="n">
+        <v>548</v>
+      </c>
+      <c r="O8" t="n">
+        <v>608</v>
+      </c>
+      <c r="P8" t="n">
+        <v>702</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>814</v>
+      </c>
+      <c r="R8" t="n">
+        <v>845</v>
+      </c>
+      <c r="S8" t="n">
+        <v>803</v>
+      </c>
+      <c r="T8" t="n">
+        <v>524</v>
+      </c>
+      <c r="U8" t="n">
+        <v>159</v>
+      </c>
+      <c r="V8" t="n">
+        <v>44</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1</v>
+      </c>
+      <c r="X8" t="n">
+        <v>7053</v>
       </c>
     </row>
   </sheetData>
